--- a/Doc/05_課題管理/課題管理票.xlsx
+++ b/Doc/05_課題管理/課題管理票.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762D3C6E-3577-461E-81C3-E0E199F2A386}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B4E006-C2D1-4DC9-9A12-069BD8B03439}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -405,6 +405,85 @@
     <rPh sb="41" eb="43">
       <t>デキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵側の考察処理</t>
+    <rPh sb="0" eb="2">
+      <t>テキガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウサツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1と同様の事象が発生。
+原因の調査が必要</t>
+    <rPh sb="2" eb="4">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武田</t>
+    <rPh sb="0" eb="2">
+      <t>タケダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール知識不足。修正範囲が広いため、今回は対応なし。</t>
+    <rPh sb="3" eb="5">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>―</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -862,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1020,17 +1099,29 @@
       <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="80.25" customHeight="1">
       <c r="A6" s="2">
@@ -1051,7 +1142,9 @@
       <c r="F6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5">
+        <v>44620</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="2" t="s">
         <v>13</v>
@@ -1077,8 +1170,12 @@
       <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="5">
+        <v>44620</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
@@ -1102,11 +1199,17 @@
         <v>31</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5">
+        <v>44620</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
@@ -1115,15 +1218,27 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="5">
+        <v>44614</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="5">
+        <v>44620</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>

--- a/Doc/05_課題管理/課題管理票.xlsx
+++ b/Doc/05_課題管理/課題管理票.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B4E006-C2D1-4DC9-9A12-069BD8B03439}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B04BFF0-339D-469E-B08B-81E48BEC158C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -451,13 +451,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中村</t>
-    <rPh sb="0" eb="2">
-      <t>ナカムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ルール知識不足。修正範囲が広いため、今回は対応なし。</t>
     <rPh sb="3" eb="5">
       <t>チシキ</t>
@@ -484,6 +477,273 @@
   </si>
   <si>
     <t>―</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵レベル選択</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵のレベル「弱い」「普通」「強い」どれを選んでも
+「強い」を選択したことになっている。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した敵レベルをDialogResult に代入したのが間違い。
+別変数にセットし、それを参照するよう修正する。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵レベルを選択する時のマウスカーソルは指型が良い。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ユビ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵レベルを表示しているコントロールの「Cursor」
+プロパティをHandに変更。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中断処理</t>
+    <rPh sb="0" eb="2">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中断ボタンを押下すると中断処理が出来るが、
+画面右上の「×」ボタンで終了すると中断処理が行われない</t>
+    <rPh sb="0" eb="2">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川本</t>
+    <rPh sb="0" eb="2">
+      <t>カワモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetTurn()メソッドを全体的に見直す必要有。
+マス目をクリックした時の条件も修正が必要</t>
+    <rPh sb="14" eb="16">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アリ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵クラスが置く場所を考える際に使用する盤面データが
+初期状態から更新されていないのが原因。
+Think()メソッドの前に最新の盤面情報を取得するよう修正</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ショキジョウタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×ボタンで終了する際も中断処理を行うよう変更。</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1100,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
@@ -1117,10 +1377,10 @@
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="80.25" customHeight="1">
@@ -1198,7 +1458,9 @@
       <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
@@ -1214,7 +1476,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="45" customHeight="1">
+    <row r="9" spans="1:13" ht="67.5" customHeight="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1227,9 +1489,11 @@
       <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F9" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G9" s="5">
         <v>44620</v>
@@ -1243,19 +1507,33 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="45" customHeight="1">
+    <row r="10" spans="1:13" ht="51" customHeight="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
+      <c r="B10" s="5">
+        <v>44635</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5">
+        <v>44644</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
@@ -1264,14 +1542,28 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="5">
+        <v>44635</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44644</v>
+      </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="5"/>
@@ -1281,15 +1573,29 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="5">
+        <v>44635</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="5">
+        <v>44644</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>

--- a/Doc/05_課題管理/課題管理票.xlsx
+++ b/Doc/05_課題管理/課題管理票.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B04BFF0-339D-469E-B08B-81E48BEC158C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A27EDA6-1ABA-48C6-AD49-DF483950850B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -743,6 +743,26 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦歴保存</t>
+    <rPh sb="0" eb="4">
+      <t>センレキホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザデータファイルが存在しない状態でゲームを終了するとエラーになる。</t>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -866,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,9 +908,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1223,51 +1240,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="13" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1277,43 +1294,43 @@
       <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>44555</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>44561</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>44561</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10">
+      <c r="K3" s="8"/>
+      <c r="L3" s="9">
         <v>44561</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1600,9 +1617,32 @@
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13">
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+    <row r="13" spans="1:13" ht="51" customHeight="1">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44644</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5">
+        <v>44644</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
